--- a/datas/Doll.xlsx
+++ b/datas/Doll.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Doll" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Doll" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>系列ID</t>
+          <t>系列ID，引用 DollSeries.id（预留）</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>故事ID</t>
+          <t>故事ID，引用 Story.id（预留）</t>
         </is>
       </c>
     </row>

--- a/datas/Doll.xlsx
+++ b/datas/Doll.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Doll" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Doll" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,6 +709,697 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>40001</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>doll/animal/cat_01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>doll/res/cat_01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>doll/voice/cat_01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>喵~</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>idle_normal</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sit,play,sleep</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>40002</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>doll/animal/dog_01</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>doll/res/dog_01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>doll/voice/dog_01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>汪汪!</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>idle_normal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sit,run,wag</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>40003</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>doll/animal/rabbit_01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>doll/res/rabbit_01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>doll/voice/rabbit_01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>呜~</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>idle_hop</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hop,eat,sleep</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>40101</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>doll/animal/fox_01</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>doll/res/fox_01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doll/voice/fox_01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>嘤嘤嘤~</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>idle_elegant</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sit,dance,wave</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20002,100</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>40102</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>doll/animal/panda_01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>doll/res/panda_01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>doll/voice/panda_01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>哼哼~</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>idle_lazy</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>eat,roll,climb</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>20002,100</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>40201</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>doll/animal/dragon_01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>doll/res/dragon_01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>doll/voice/dragon_01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>吼——!</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>idle_majestic</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>fly,breath,roar</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>20002,200</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>40301</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>doll/animal/phoenix_01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>doll/res/phoenix_01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>doll/voice/phoenix_01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>啾~</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>idle_divine</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>fly,flame,rebirth</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>20002,500</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>40004</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>doll/human/knight_01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>doll/res/knight_01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>doll/voice/knight_01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>为了荣耀!</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>idle_stand</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>slash,guard,salute</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="n">
+        <v>40005</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>doll/human/mage_01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>doll/res/mage_01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>doll/voice/mage_01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>魔法的力量~</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>idle_float</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cast,meditate,wave</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>40103</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>doll/human/archer_01</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>doll/res/archer_01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>doll/voice/archer_01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>百发百中!</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>idle_ready</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>aim,shoot,flip</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>20002,100</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>40202</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>doll/human/paladin_01</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>doll/res/paladin_01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>doll/voice/paladin_01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>圣光庇佑!</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>idle_holy</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>bless,smite,heal</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>20002,200</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="n">
+        <v>40006</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>doll/plant/sunflower_01</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>doll/res/sunflower_01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>doll/voice/sunflower_01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>向阳而生~</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>idle_sway</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>grow,bloom,spin</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>40104</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>doll/plant/rose_01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>doll/res/rose_01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>doll/voice/rose_01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>绽放吧~</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>idle_elegant</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>bloom,perfume,dance</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>20002,100</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
